--- a/MAPPING/trunk/org.openl.rules.mapping.dev.test/src/test/resources/org/openl/rules/mapping/multisource/MultiSourceFieldTest1.xlsx
+++ b/MAPPING/trunk/org.openl.rules.mapping.dev.test/src/test/resources/org/openl/rules/mapping/multisource/MultiSourceFieldTest1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>classA</t>
   </si>
@@ -570,7 +570,7 @@
   <dimension ref="C7:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D11"/>
+      <selection activeCell="D18" sqref="D18:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -676,7 +676,7 @@
       <c r="C18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E18" t="s">
@@ -695,9 +695,7 @@
     </row>
     <row r="19" spans="3:9">
       <c r="C19" s="16"/>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
+      <c r="D19" s="16"/>
       <c r="E19" t="s">
         <v>20</v>
       </c>
@@ -710,9 +708,7 @@
     </row>
     <row r="20" spans="3:9">
       <c r="C20" s="16"/>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
+      <c r="D20" s="16"/>
       <c r="E20" t="s">
         <v>21</v>
       </c>
@@ -725,9 +721,7 @@
     </row>
     <row r="21" spans="3:9">
       <c r="C21" s="16"/>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
+      <c r="D21" s="16"/>
       <c r="E21" t="s">
         <v>23</v>
       </c>
@@ -740,9 +734,7 @@
     </row>
     <row r="22" spans="3:9">
       <c r="C22" s="16"/>
-      <c r="D22" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="D22" s="16"/>
       <c r="E22" s="6" t="s">
         <v>24</v>
       </c>
@@ -754,7 +746,7 @@
       <c r="I22" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="C15:I15"/>
@@ -762,6 +754,7 @@
     <mergeCell ref="F18:F22"/>
     <mergeCell ref="C18:C22"/>
     <mergeCell ref="H18:H22"/>
+    <mergeCell ref="D18:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
